--- a/Buttons Testing Table.xlsx
+++ b/Buttons Testing Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stelios\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stelios\Desktop\SDP\SDP-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBDE56E-EFEC-4BAA-B57F-859D58EE1D6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D549A-F155-4B5A-B1C2-D14B0C32AD92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{F613F66A-5BDC-4DBD-9703-E92288479E80}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Say Hello</t>
   </si>
@@ -120,13 +120,10 @@
     <t>?</t>
   </si>
   <si>
-    <t>ERROR DURING GAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*graph on phone doesn't display all 12 values </t>
-  </si>
-  <si>
-    <t>* Have not checked the LEDs</t>
+    <t xml:space="preserve">PHONE CRASHES SOMETIMES </t>
+  </si>
+  <si>
+    <t>Leds working Okay</t>
   </si>
 </sst>
 </file>
@@ -614,7 +611,7 @@
   <dimension ref="A3:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,8 +680,12 @@
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -696,8 +697,12 @@
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -709,8 +714,12 @@
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -722,8 +731,12 @@
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -735,8 +748,12 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -760,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
     </row>
@@ -896,9 +913,11 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="H18" s="9">
+        <v>6</v>
+      </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -917,9 +936,11 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6</v>
+      </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -940,8 +961,8 @@
       <c r="G20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>32</v>
+      <c r="H20" s="9">
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
     </row>
@@ -961,7 +982,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>

--- a/Buttons Testing Table.xlsx
+++ b/Buttons Testing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stelios\Desktop\SDP\SDP-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D549A-F155-4B5A-B1C2-D14B0C32AD92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFFAE55-974E-4584-BCA6-26572AD8C3C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{F613F66A-5BDC-4DBD-9703-E92288479E80}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Say Hello</t>
   </si>
@@ -75,27 +75,9 @@
     <t>Reaction Game 5</t>
   </si>
   <si>
-    <t>Reaction Game 6</t>
-  </si>
-  <si>
     <t>Start Detect</t>
   </si>
   <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
-  </si>
-  <si>
-    <t>Option 4</t>
-  </si>
-  <si>
-    <t>Option 5</t>
-  </si>
-  <si>
-    <t>Option 6</t>
-  </si>
-  <si>
     <t>Reaction Game 1 (Demo)</t>
   </si>
   <si>
@@ -120,17 +102,14 @@
     <t>?</t>
   </si>
   <si>
-    <t xml:space="preserve">PHONE CRASHES SOMETIMES </t>
-  </si>
-  <si>
-    <t>Leds working Okay</t>
+    <t xml:space="preserve">Messages Send </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +155,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +205,16 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -243,7 +240,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -251,8 +248,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,13 +287,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
+    <cellStyle name="Accent1" xfId="7" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="8" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -608,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414086BA-41D1-4EC5-AE39-99906C48483B}">
-  <dimension ref="A3:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,6 +629,30 @@
     <col min="9" max="9" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
@@ -637,19 +668,19 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -668,9 +699,9 @@
       <c r="E5" s="1">
         <v>351</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -686,9 +717,13 @@
       <c r="D6" s="1">
         <v>13</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="1">
+        <v>513</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
@@ -703,9 +738,13 @@
       <c r="D7" s="1">
         <v>14</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="1">
+        <v>1514</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
@@ -720,9 +759,13 @@
       <c r="D8" s="1">
         <v>15</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="1">
+        <v>1515</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
@@ -737,9 +780,13 @@
       <c r="D9" s="1">
         <v>16</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1">
+        <v>1516</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
@@ -754,9 +801,13 @@
       <c r="D10" s="1">
         <v>17</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="1">
+        <v>1517</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
@@ -771,14 +822,12 @@
       <c r="D11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -792,10 +841,10 @@
       <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -811,10 +860,10 @@
       <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -830,10 +879,10 @@
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -849,10 +898,10 @@
       <c r="D15" s="2">
         <v>11</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -868,10 +917,10 @@
       <c r="D16" s="2">
         <v>12</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -879,7 +928,7 @@
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -890,9 +939,9 @@
       <c r="E17" s="3">
         <v>350</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -911,13 +960,11 @@
       <c r="E18" s="3">
         <v>352</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="9">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -934,13 +981,11 @@
       <c r="E19" s="3">
         <v>353</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="9">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -957,13 +1002,11 @@
       <c r="E20" s="3">
         <v>354</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="9">
-        <v>12</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -980,122 +1023,104 @@
       <c r="E21" s="3">
         <v>355</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="C22" s="4">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
